--- a/htdocs/achive_questions_2023/voprosi_3_2023.xlsx
+++ b/htdocs/achive_questions_2023/voprosi_3_2023.xlsx
@@ -16,594 +16,579 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="196">
-  <si>
-    <t>Синтаксистың тикшеренеү объекты булып ниндәй берәмек һанала?</t>
-  </si>
-  <si>
-    <t>хәреф</t>
-  </si>
-  <si>
-    <t>һөйләм</t>
-  </si>
-  <si>
-    <t>ижек</t>
-  </si>
-  <si>
-    <t xml:space="preserve">һүҙ </t>
-  </si>
-  <si>
-    <t>Синонимдарға ниндәй һүҙҙәр ҡарай?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">мәғәнәләре яғынан ҡапма-ҡаршы һүҙҙәр   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">мәғәнәләре менән төрлө, әйтелештәре бер үк </t>
-  </si>
-  <si>
-    <t>төрлө әйтелешле, мәғәнәләре буйынса яҡын һүҙҙәр</t>
-  </si>
-  <si>
-    <t>бер вариант та дөрөҫ түгел</t>
-  </si>
-  <si>
-    <t>Телдә полисемия күренеше нимә менән бәйләнгән?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">һүҙҙәрҙең бермәғәнәлелеге менән  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">һүҙҙәрҙең һөйләмдәге үҙ-ара мөнәсәбәте менән </t>
-  </si>
-  <si>
-    <t>һүҙҙәрҙең грамматик категориялары менән</t>
-  </si>
-  <si>
-    <t>һүҙҙәрҙең күпмәғәнәлелеге менән</t>
-  </si>
-  <si>
-    <t>Диалектизмдарға ниндәй лексик берәмектәр инә?</t>
-  </si>
-  <si>
-    <t>тотороҡло һүҙбәйләнештәр</t>
-  </si>
-  <si>
-    <t>айырым һөнәр өлкәһендә ҡулланылған һүҙҙәр</t>
-  </si>
-  <si>
-    <t>айырым бер территория, ерле һөйләштәр өсөн хас һүҙҙәр</t>
-  </si>
-  <si>
-    <t>һөйләү телмәре</t>
-  </si>
-  <si>
-    <t>Тәржемә һүҙлектәрендә ниндәй маҡсат ҡуйыла?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">бер телдең һүҙҙәрен икенсе тел һүҙҙәре менән биреү </t>
-  </si>
-  <si>
-    <t>ер-һыу, кеше исемдәрен сағылдырыу</t>
-  </si>
-  <si>
-    <t>һүҙҙәргә аңлатма биреү</t>
-  </si>
-  <si>
-    <t>һүҙҙәрҙең синонимдарын биреү</t>
-  </si>
-  <si>
-    <t>Башҡорттар тураһында тәүге мәғлүмәт биргән ғәрәп сәйәхәтсеһе:</t>
-  </si>
-  <si>
-    <t>Сәләм Тәржемән</t>
-  </si>
-  <si>
-    <t>Мөйтән</t>
-  </si>
-  <si>
-    <t xml:space="preserve">М.Аҡмулла </t>
-  </si>
-  <si>
-    <t>Ҡасҡын Һамаров</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лексикологияның ниндәй бүлеге һүҙҙәрҙең килеп сығышын тикшерә? </t>
-  </si>
-  <si>
-    <t>ономасиология</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="191">
+  <si>
+    <t>Тел тураһындағы фән нисек тип атала?</t>
+  </si>
+  <si>
+    <t>лексикология</t>
   </si>
   <si>
     <t>семасиология</t>
   </si>
   <si>
-    <t>этимология</t>
-  </si>
-  <si>
-    <t>семантика</t>
-  </si>
-  <si>
-    <t>Түбәндәге өҙөктөң авторы кем? &lt;br&gt;&lt;b&gt;&lt;i&gt;Йөрөгәнем бар, мин тауҙарҙың&lt;/br&gt;Хәүеф-хәтәрен беләм,&lt;/br&gt;Менгәнем бар бейектәргә,&lt;/br&gt;Шуға ҡәҙерен беләм.&lt;/i&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>М.Аҡмулла</t>
-  </si>
-  <si>
-    <t>М. Кәрим</t>
-  </si>
-  <si>
-    <t>Ғ.Сәләм</t>
-  </si>
-  <si>
-    <t>Т.Ғәниева</t>
-  </si>
-  <si>
-    <t>Һүҙбәйләнештең төрөн билдәләге: етенсе йыл</t>
-  </si>
-  <si>
-    <t>йәнәшәлек</t>
+    <t>лингвистика</t>
+  </si>
+  <si>
+    <t>археология</t>
+  </si>
+  <si>
+    <t>Тел ғилеменең бүлектәре:</t>
+  </si>
+  <si>
+    <t>археология, этнография, фольклористика;</t>
+  </si>
+  <si>
+    <t>фонетика, фонология, лексикология, грамматика, стилистика;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">психология, археология, дидактика, логика. </t>
+  </si>
+  <si>
+    <t>тарих, әҙәбиәт ғилеме, анатомия, физика, социология, психология h.б.</t>
+  </si>
+  <si>
+    <t>Тартынҡы өндән башланған һүҙҙе күрһәтегеҙ.</t>
+  </si>
+  <si>
+    <t>япраҡ</t>
+  </si>
+  <si>
+    <t>урман</t>
+  </si>
+  <si>
+    <t>имән</t>
+  </si>
+  <si>
+    <t>өйрәк</t>
+  </si>
+  <si>
+    <t>Бирелгән һүҙҙәрҙең хаталыһын табып билдәләгеҙ.</t>
+  </si>
+  <si>
+    <t>ялағай</t>
+  </si>
+  <si>
+    <t xml:space="preserve">йамғыр </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ялғаш </t>
+  </si>
+  <si>
+    <t>яйыҡ</t>
+  </si>
+  <si>
+    <t>Яңғырау тартынҡылар ғына бирелгән юлды билдәләгеҙ.</t>
+  </si>
+  <si>
+    <t>[п], [ф], [к], [ҡ], [т], [с], [ҫ], [ш], [х], [һ], [ч], [ц]</t>
+  </si>
+  <si>
+    <t>[б], [в], [г], [ғ], [д], [ҙ], [ж], [з], [к], [т], [с], [ң]</t>
+  </si>
+  <si>
+    <t>[б], [в], [п], [ф], [г], [к], [ҡ], [т], [ш], [х], [ч],[щ]</t>
+  </si>
+  <si>
+    <t>яңғырау тартынҡылар ғына булған рәт юҡ</t>
+  </si>
+  <si>
+    <t>Ҡайһы юлдағы һүҙҙәр тик тамырҙаш һүҙҙәр?</t>
+  </si>
+  <si>
+    <t>күҙле, күҙлек, күҙәнәк</t>
+  </si>
+  <si>
+    <t>осло, осонда, осоусы</t>
+  </si>
+  <si>
+    <t>уҡы, уҡсы, уҡыусы</t>
+  </si>
+  <si>
+    <t>елдең, елгә, елдән, елдә</t>
+  </si>
+  <si>
+    <t>Ҡайһы төркөмдә ҡыҫҡартма исемдәр дөрөҫ яһалған?</t>
+  </si>
+  <si>
+    <t>Журнал – ж., гәзит – г., урам – ур</t>
+  </si>
+  <si>
+    <t>Журнал – жу., гәзит – гә., урам – ура</t>
+  </si>
+  <si>
+    <t>Район – р., йылға – йыл., ауыл – ау</t>
+  </si>
+  <si>
+    <t>дөрөҫ яуап юҡ</t>
+  </si>
+  <si>
+    <t>Ҡайһы төркөмдә ҡабатлаулы исемдәр бирелгән?</t>
+  </si>
+  <si>
+    <t>тимер-томор, әбей-һәбей, ағас-мағас</t>
+  </si>
+  <si>
+    <t>тимерлек, нефтсе, педколледж</t>
+  </si>
+  <si>
+    <t>СДПА, БМО, медколледж</t>
+  </si>
+  <si>
+    <t>Һөйләм эйә менән хәбәрҙән генә торһа, …була.</t>
+  </si>
+  <si>
+    <t>йыйнаҡ һөйләм</t>
+  </si>
+  <si>
+    <t>билдәле эйәле һөйләм</t>
+  </si>
+  <si>
+    <t>тарҡау һөйләм</t>
+  </si>
+  <si>
+    <t>кәм һөйләм</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;i&gt;Дуҫтарың кемдәр, дошмандарың кемдәр&lt;/i&gt;&lt;/b&gt; һөйләме аҙағында ниндәй тыныш билдәһе ҡуйыла?</t>
+  </si>
+  <si>
+    <t>нөктә</t>
+  </si>
+  <si>
+    <t>һорау билдәһе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">өндәү билдәһе </t>
+  </si>
+  <si>
+    <t>нөктәле өтөр</t>
+  </si>
+  <si>
+    <t>Тыныш билдәләре дөрөҫ ҡуйылған һөйләмде билдәләргә.</t>
+  </si>
+  <si>
+    <t>егетлек, бүрек кейеүҙә түгел, батырлыҡта</t>
+  </si>
+  <si>
+    <t>китап, дәфтәр, ручка – былар уҡыусыға кәрәкле әйберҙәр</t>
+  </si>
+  <si>
+    <t>килбәте ниндәй; күләгәһе шундай</t>
+  </si>
+  <si>
+    <t>донъяла, беҙҙең өсөн, дуҫ бар, дошман бар</t>
+  </si>
+  <si>
+    <t>Шартлы сифаттар төркөмөн билдәләгеҙ.</t>
+  </si>
+  <si>
+    <t>киң (урам), тар (урын), бейек (ҡойма)</t>
+  </si>
+  <si>
+    <t>ҡурҡаҡ (ҡош), өркәк (мал)</t>
+  </si>
+  <si>
+    <t>йәйге (кис), төнгө (юл), урмандағы (өй)</t>
+  </si>
+  <si>
+    <t>Исемдәрҙә һан категорияһы нисек белдерелә?</t>
+  </si>
+  <si>
+    <t>аффикстар һәм күп, байтаҡ кеүек һүҙҙәр аша</t>
+  </si>
+  <si>
+    <t>байтаҡ, күп, аҙ кеүек һүҙҙәр ярҙамында</t>
+  </si>
+  <si>
+    <t>һүҙ баҫымы үҙгәреү арҡаһында</t>
+  </si>
+  <si>
+    <t>Арттырып һөйләү мәғәнәһен ҡайһы фразеологизм бирә?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ҡараш ташлау </t>
+  </si>
+  <si>
+    <t>берҙе биш итеү</t>
+  </si>
+  <si>
+    <t xml:space="preserve">баш ватыу </t>
+  </si>
+  <si>
+    <t>ат менгәндәй булыу</t>
+  </si>
+  <si>
+    <t>Рус теленән боронғо осорҙа үҙләштерелгән һүҙҙәрҙе билдәләгеҙ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">йүгереү, ҡасыу, һыпыртыу </t>
+  </si>
+  <si>
+    <t>мөғәллим, мәмләкәт, мөхбир</t>
+  </si>
+  <si>
+    <t xml:space="preserve">эҫкерт, келәт, кирбес, һалам </t>
+  </si>
+  <si>
+    <t>ҡусты, эне, мырҙа, мыртый</t>
+  </si>
+  <si>
+    <t>Һөйләмдә ниндәй һүрәтләү сараһы ҡулланылған?&lt;/br&gt;&lt;b&gt;&lt;i&gt;Хәтфә ялан уртаһында бөҙрә ҡайын тирбәлә.&lt;/i&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сағыштырыу </t>
+  </si>
+  <si>
+    <t>эпитет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">метонимия </t>
+  </si>
+  <si>
+    <t>антоним</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;i&gt;Йылы һөйәк һындырмай” тип бушҡа ғына әйткәндерме ни? (З.Биишева). &lt;/i&gt;&lt;/b&gt;Бирелгән һөйләмдә рәүеште табып, төркөмсәһен билдәләгеҙ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">төп рәүеш </t>
+  </si>
+  <si>
+    <t>урын рәүеше</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ваҡыт рәүеше </t>
+  </si>
+  <si>
+    <t>маҡсат рәүеше</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;i&gt;Бүлмәлә бөгөн йылы.&lt;/i&gt;&lt;/b&gt; Был ниндәй һөйләм төрө?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ике составлы һөйләм </t>
+  </si>
+  <si>
+    <t>эйәһеҙ һөйләм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">билдәһеҙ эйәле һөйләм </t>
+  </si>
+  <si>
+    <t>дөйөм эйәле һөйләм</t>
+  </si>
+  <si>
+    <t>Һөйләмдең нигеҙен (төҙөлөшө буйынса) тәшкил иткән иң кәрәкле, әһәмиәтле киҫәктәр ниндәй?</t>
+  </si>
+  <si>
+    <t>баш киҫәктәр</t>
+  </si>
+  <si>
+    <t>модаль киҫәктәр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">эйәрсән киҫәктәр </t>
+  </si>
+  <si>
+    <t>актуаль киҫәктәр</t>
+  </si>
+  <si>
+    <t>Эйәртеүсе һүҙ эйәреүсе һүҙҙең билдәле бер килештә килеүен талап иткән бәйләнеш:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">йәнәшәлек </t>
+  </si>
+  <si>
+    <t xml:space="preserve">башҡарылыу </t>
   </si>
   <si>
     <t>һөйкәлеү</t>
   </si>
   <si>
-    <t xml:space="preserve">башҡарылыу </t>
-  </si>
-  <si>
     <t>ярашыу</t>
   </si>
   <si>
-    <t>Омонимдарҙы күрһәтегеҙ.</t>
-  </si>
-  <si>
-    <t>ат – ат, ял – ял, үпкә – үпкә</t>
-  </si>
-  <si>
-    <t>матур, сибәр, гүзәл, һылыу</t>
-  </si>
-  <si>
-    <t>бейек – тәпәш, шәп – яй</t>
-  </si>
-  <si>
-    <t>бар варианттар ҙа дөрөҫ</t>
-  </si>
-  <si>
-    <t>Теҙмә бәйләнеште ниндәй сара белдерә?</t>
-  </si>
-  <si>
-    <t>бәйләүес һәм бәйләүес һүҙҙәр</t>
-  </si>
-  <si>
-    <t>килеш ялғауҙары</t>
-  </si>
-  <si>
-    <t>эйәртеүсе теркәүестәр</t>
-  </si>
-  <si>
-    <t>теҙеү теркәүестәре</t>
-  </si>
-  <si>
-    <t>Ҡылым фразеологик берәмек бирелгән рәтте билдәләгеҙ.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ҡараш ташланы                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">бармағы үҙенә ҡарай кәкре </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ҡуш йөрәкле                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">тел биҫтәһе </t>
-  </si>
-  <si>
-    <t>Һөйләмдең дөрөҫ анализын күрһәтегеҙ: &lt;/br&gt;&lt;b&gt;&lt;i&gt;Башҡорт телен дәүләт теле тип иғлан итеүгә байтаҡ ваҡыт үтте(И.Шарапов).&lt;/i&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>ябай, ике составлы, тулы, тарҡау, раҫлаусы хәбәр һөйләм</t>
-  </si>
-  <si>
-    <t>ябай, ике составлы, тулы, тарҡау, инҡар итеүсе, хәбәр һөйләм</t>
-  </si>
-  <si>
-    <t>ябай, ике составлы, тулы, йыйнаҡ, хәбәр һөйләм</t>
-  </si>
-  <si>
-    <t>ябай, бер составлы, билдәле эйәле, тулы, раҫлаусы хәбәр һөйләм</t>
-  </si>
-  <si>
-    <t>Хәбәрҙең төрөн билдәләгеҙ: &lt;/br&gt;&lt;b&gt;&lt;i&gt;Муйыл ҡыуағы тирәһендә бал ҡорттары осоп йөрөй.&lt;/i&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>ябай ҡылым хәбәр</t>
-  </si>
-  <si>
-    <t>ҡушма ҡылым хәбәр</t>
-  </si>
-  <si>
-    <t>теҙмә ҡылым хәбәр</t>
-  </si>
-  <si>
-    <t>исем ҡылым хәбәр</t>
-  </si>
-  <si>
-    <t>Һөйләмдең төрөн билдәләгеҙ.&lt;/br&gt;&lt;b&gt;&lt;i&gt;Бер ҡарағанда ул томан да түгел һымаҡ,әйтерһең аҡ мамыҡты ваҡ ҡына итеп теткәндәр ҙә ер өҫтөнә һибәләгәндәр («Ағиҙел» журналынан).&lt;/i&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>теркәүесле теҙмә ҡушма һөйләм</t>
-  </si>
-  <si>
-    <t>теркәүесһеҙ теҙмә ҡушма һөйләм</t>
-  </si>
-  <si>
-    <t>эйәртеүле ҡушма һөйләм</t>
-  </si>
-  <si>
-    <t>күп эйәрсәнле ҡушма һөйләм</t>
-  </si>
-  <si>
-    <t>Номинатив функция үтәүсе һәм кәмендә ике үҙ аллы һүҙҙең грамматик бәйләнешкә инеүе һөҙөмтәһендә барлыҡҡа килеүсе һүҙҙәр берләшмәһе нисек атала?</t>
-  </si>
-  <si>
-    <t>теҙмә бәйләнеш</t>
-  </si>
-  <si>
-    <t>һүҙ-һөйләм</t>
-  </si>
-  <si>
-    <t xml:space="preserve">һүҙбәйләнеш </t>
-  </si>
-  <si>
-    <t>инеш һүҙ</t>
-  </si>
-  <si>
-    <t>Түбәндәге өҙөктөң авторы кем?&lt;/br&gt;&lt;b&gt;&lt;i&gt;Дуҫ булмаҫ, дуҫын һырттан яманлаһа,&lt;/br&gt;Кеше булмаҫ, бер хатаны яба алмаһа.&lt;/br&gt;Бәндәне һырттан әҙәм ни тимәйҙер.&lt;/br&gt;Инсаф итеп, бер Хоҙайҙан оялмаһа...&lt;/i&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>М.Өмөтбаев</t>
-  </si>
-  <si>
-    <t>Ш.Бабич</t>
-  </si>
-  <si>
-    <t>М.Ғафури</t>
-  </si>
-  <si>
-    <t>Башҡорт телендә китаптар тәү башлап ҡасан сыға башлай?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1919-1923 йылдарҙа </t>
-  </si>
-  <si>
-    <t>1900-1905 йылдарҙа</t>
-  </si>
-  <si>
-    <t>1912-1914 йылдарҙа</t>
-  </si>
-  <si>
-    <t>1918-1920 йылдарҙа</t>
-  </si>
-  <si>
-    <t>Паронимдарҙы билдәләгеҙ.</t>
-  </si>
-  <si>
-    <t>тәгәрләү – тәгәрәү, үрләү – үрмәләү, бөрсөк – бөртөк</t>
-  </si>
-  <si>
-    <t>ошо – теге, ҡайғы – шатлыҡ, быйыл – былтыр</t>
-  </si>
-  <si>
-    <t>аңлау – төшөнөү, матур – сибәр, аҫыл – затлы</t>
-  </si>
-  <si>
-    <t>Теҙмә ҡушма һөйләмде табығыҙ.</t>
-  </si>
-  <si>
-    <t>Юғары аң тарафынан һәр бер милләткә ниндәйҙер  тәғәйенләнеш, бурыс ҡуйыла( Ф. Күзбәков).</t>
-  </si>
-  <si>
-    <t>Һис арттырмайым: инәләре ике тонна, быҙауҙары өсәр центнер тартыр (« Ағиҙел» журналынан).</t>
+    <t>Теҙмә ҡушма һөйләмде табығыҙ</t>
+  </si>
+  <si>
+    <t>Юғары аң тарафынан һәр бер милләткә ниндәйҙер  тәғәйенләнеш, бурыс ҡуйыла ( Ф. Күзбәков).</t>
+  </si>
+  <si>
+    <t>Һис арттырмайым: инәләре ике тонна, быҙауҙары өсәр центнер тартыр («Ағиҙел»).</t>
   </si>
   <si>
     <t>Разведка хәбәр иткәс, Пугачев яңы әмер бирә (Г. Ибраһимов).</t>
   </si>
   <si>
-    <t xml:space="preserve">Төндә йәнә йәшен  йәшнәне, ҡойоп ямғыр яуҙы(Н. Мусин). </t>
-  </si>
-  <si>
-    <t>Халыҡ ижадына ҡайһы ижад төрө ҡарай?</t>
-  </si>
-  <si>
-    <t>әкиәт, ҡобайыр, сеңләү</t>
-  </si>
-  <si>
-    <t>повесть, ҡобайыр, роман</t>
-  </si>
-  <si>
-    <t>парса, сеңләү, трилогия</t>
-  </si>
-  <si>
-    <t>әкиәт, роман, ҡобайыр</t>
-  </si>
-  <si>
-    <t>Эйәрсән һөйләм баш һөйләмгә  ниндәй сара менән бәйләнә ала.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">килеш ялғауҙары </t>
-  </si>
-  <si>
-    <t>йыйыу теркәүестәре</t>
-  </si>
-  <si>
-    <t>һанау интонацияһы</t>
-  </si>
-  <si>
-    <t>дәрәжә категорияһы</t>
-  </si>
-  <si>
-    <t>Башҡорт теле генеологияһы буйынса ниндәй төркөмгә ҡарай?</t>
-  </si>
-  <si>
-    <t>славян телдәре төркөмөнә</t>
-  </si>
-  <si>
-    <t>фин-уғыр телдәре төркөмөнә</t>
-  </si>
-  <si>
-    <t>төрки телдәре төркөмөнә</t>
-  </si>
-  <si>
-    <t>Ниндәй һүҙ төpкөмдәре һөйләм киҫәге була ала?</t>
-  </si>
-  <si>
-    <t>ярҙамсы һүҙ төpкөмдәре</t>
-  </si>
-  <si>
-    <t xml:space="preserve">үҙ аллы һүҙ төpкөмдәре </t>
-  </si>
-  <si>
-    <t>модаль һүҙҙәp, ымлыҡтар</t>
-  </si>
-  <si>
-    <t>береһе лә була алмай</t>
-  </si>
-  <si>
-    <t>Эйәртеүсе киҫәге сифат, эйәреүсе һүҙе исем булған һүҙбәйләнештәрҙе билдәләгеҙ.</t>
-  </si>
-  <si>
-    <t>йәйге имтихан, етенсе йыл, яҡшы баһа</t>
-  </si>
-  <si>
-    <t>студенттарҙан һин, уҡыусының үҙе</t>
-  </si>
-  <si>
-    <t xml:space="preserve">һүҙгә оҫта, тауҙан бейек, балаға аңлайышлы </t>
-  </si>
-  <si>
-    <t>мәктәптә эшләү, дуҫты осратыу, эшкә барыу</t>
-  </si>
-  <si>
-    <t>“Антропонимика” бүлегендә нимәләр ҡарала?</t>
-  </si>
-  <si>
-    <t>ер-һыу атамалары</t>
-  </si>
-  <si>
-    <t>үҫемлек атамалары</t>
-  </si>
-  <si>
-    <t xml:space="preserve">кеше исемдәре </t>
-  </si>
-  <si>
-    <t>йондоҙ атамалары</t>
-  </si>
-  <si>
-    <t>Ниндәй һүҙбәйләнештәр фразеологик берәмектәр тип атала?</t>
-  </si>
-  <si>
-    <t>ирекле һүҙбәйләрнештәр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">нығынған һүҙбәйләнештәр </t>
-  </si>
-  <si>
-    <t>эйәртеүле һүҙбәйләнештәр</t>
-  </si>
-  <si>
-    <t>теҙмә һүҙбәйләнештәр</t>
-  </si>
-  <si>
-    <t>Ниндәй һүҙҙәр экспрессив-эмоциональ, баһалау мәғәнәләренә эйә?</t>
-  </si>
-  <si>
-    <t>әсәкәй, матурҡас, һаҡал-маҡал</t>
-  </si>
-  <si>
-    <t>тау, бәләкәй, яҡшыраҡ</t>
-  </si>
-  <si>
-    <t>ҡайтыу, йүгереү, үрмәләү</t>
-  </si>
-  <si>
-    <t>дөрөҫ яуап юҡ</t>
-  </si>
-  <si>
-    <t>Ҡайһы төркөмдәге һүҙҙәргә протеза күренеше хас?</t>
-  </si>
-  <si>
-    <t>бәхет, эҫкерт, арыш</t>
-  </si>
-  <si>
-    <t>ыҫмала, карауат, торба</t>
-  </si>
-  <si>
-    <t>әрилкә, ваҡыт, арыҫлан</t>
-  </si>
-  <si>
-    <t xml:space="preserve">эләүкә, эшләпә, өҫтәл </t>
-  </si>
-  <si>
-    <t>Беренсе башҡорт алфавитын кем төҙөгән?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">М.С. Ҡулаев </t>
-  </si>
-  <si>
-    <t>Ж.Ғ. Кейекбаев</t>
-  </si>
-  <si>
-    <t>Н.К. Дмитриев</t>
-  </si>
-  <si>
-    <t>Һүҙ яһаусы ялғауҙар ҡабул иткән һүҙҙәрҙе билдәләгеҙ.</t>
-  </si>
-  <si>
-    <t>эшсән, дәфтәремдең</t>
-  </si>
-  <si>
-    <t xml:space="preserve">тегеүсе, юлдаш </t>
-  </si>
-  <si>
-    <t>ялҡынлы, китаптарға</t>
-  </si>
-  <si>
-    <t>утынды, йәйләүҙә</t>
-  </si>
-  <si>
-    <t>Һанала торған бер төрлө предметтарҙың йыйылмаһын белдергән һүҙҙәр нимә тип атала?</t>
-  </si>
-  <si>
-    <t>сама һандары...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">кәсер һандары </t>
-  </si>
-  <si>
-    <t xml:space="preserve">йыйыу һандары </t>
-  </si>
-  <si>
-    <t>бүлеү һандары</t>
-  </si>
-  <si>
-    <t>Һүҙҙең лексик мәғәнәһен билдәләгеҙ.</t>
-  </si>
-  <si>
-    <t>бүрек – һөйләмдә эйә</t>
-  </si>
-  <si>
-    <t>бүрек – исем</t>
-  </si>
-  <si>
-    <t>бүрек – һөйләмдә тултырыусы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">бүрек – баш кейеме </t>
-  </si>
-  <si>
-    <t>Төп башҡорт һүҙҙәренән генә торған юлды билдәләгеҙ.</t>
-  </si>
-  <si>
-    <t>ҡәләм, әсәй, ҡул, өйөрмә</t>
-  </si>
-  <si>
-    <t>сәскә, мәғариф, бәхет, бала</t>
-  </si>
-  <si>
-    <t xml:space="preserve">әсәй, сәскә, ағас, үлән </t>
-  </si>
-  <si>
-    <t>егет, тәьминәт, бүрәнә, эшләпә</t>
-  </si>
-  <si>
-    <t>Был ялда ла урманға сығырға булды ул. Ҡылымдың һөйкәлеш формаһын билдәләгеҙ.</t>
-  </si>
-  <si>
-    <t>теләк-өндәү һөйкәлеше</t>
-  </si>
-  <si>
-    <t>хәбәр һөйкәлеше</t>
-  </si>
-  <si>
-    <t>ниәт-маҡсат һөйкәлеше</t>
-  </si>
-  <si>
-    <t>шарт һөйкәлеше</t>
-  </si>
-  <si>
-    <t>И.Абдуллин драматургияһына хас жанр һыҙаттары:</t>
-  </si>
-  <si>
-    <t>фольклор-этнографик</t>
-  </si>
-  <si>
-    <t>музыкаль комедия</t>
-  </si>
-  <si>
-    <t>тарихи тема</t>
-  </si>
-  <si>
-    <t>хикәйә</t>
-  </si>
-  <si>
-    <t>Башҡорт халҡы торлағынан йыһазды билдәләгеҙ.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">һике, мейес, һандыҡ, урҙа                       </t>
-  </si>
-  <si>
-    <t>арба, мейес, һике, урҙа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">иҙән, өҫтәл, һике, мейес                          </t>
-  </si>
-  <si>
-    <t>һабан, һике, урҙа, мейес</t>
-  </si>
-  <si>
-    <t>Башҡорт  ҡатын-ҡыҙҙарының кейемен билдәләгеҙ.</t>
-  </si>
-  <si>
-    <t>суҡлы түбәтәй, ҡашмау, селтәр</t>
-  </si>
-  <si>
-    <t>суҡлы түбәтәй, баса тун, селтәр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">баса тун, түшелдерек, ҡолаҡсын          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">баса тун, түшелдерек, ҡашмау              </t>
-  </si>
-  <si>
-    <t>Башҡорт милли ирҙәр кейемдәрен билдәләгеҙ.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">суҡлы түбәтәй, ҡолаҡсын, камзул        </t>
-  </si>
-  <si>
-    <t>сәкмән, таҫтар, селтәр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">түшелдерек, баса тун, суҡлы түбәтәй  </t>
-  </si>
-  <si>
-    <t>алмиҙеү, ҡолаҡсын, ҡушъяулыҡ</t>
-  </si>
-  <si>
-    <t>Халыҡ ижады өлгөләренең  (йыр, әкиәт, эпос, риүәйәт, легенда, ҡобайыр, таҡмаҡ, мәҡәл һ.б.) авторы кем?</t>
-  </si>
-  <si>
-    <t>Мифтахетдин Аҡмулла</t>
-  </si>
-  <si>
-    <t>Ризаитдин Фәхретдин</t>
-  </si>
-  <si>
-    <t>Шәйехзада Бабич</t>
-  </si>
-  <si>
-    <t>халыҡ</t>
+    <t xml:space="preserve">Төндә йәнә йәшен  йәшнәне, ҡойоп ямғыр яуҙы (Н. Мусин). </t>
+  </si>
+  <si>
+    <t>Ҡушма һөйләм  составында нисә һөйләм бар?&lt;/br&gt;&lt;b&gt;&lt;i&gt;Ғәжәпкә ҡаршы, зениткалар тынлыҡ һаҡлай, әммә бер саҡ күк йөҙөндә самолеттарҙың тигеҙ һыҙығы күренде, моторҙарҙың ритмлы геүләүе ишетелде (Ә. Чаныш).&lt;/i&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Түбәндәге һөйләмдә ниндәй теркәүесте ҡулланырға мөмкин?&lt;/br&gt;&lt;b&gt;&lt;i&gt;Немец студенттары, Тюркология институтына аҙнаһына өс тапҡыр килеп, башҡорт телен өйрәнә, … улар футболкаларына ла башҡортса яҙып ҡуйғандар (Ф.Шәғәлиева).&lt;/i&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">һәм                                </t>
+  </si>
+  <si>
+    <t>берсә</t>
+  </si>
+  <si>
+    <t xml:space="preserve">хатта                              </t>
+  </si>
+  <si>
+    <t>ләкин</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;i&gt;Ул килеп еткәндә, күрәһең, кешеләр тормаған булғандарҙыр: ишек алдында  эҙ ҙә төшмәгән, рашҡы ла ап-аҡ көйөнә ята ине (Б.Бикбай).&lt;/i&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>ҡатнаш ҡушма һөйләм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">күп эйәрсәнле ҡушма һөйләм </t>
+  </si>
+  <si>
+    <t>теҙмә ҡушма һөйләм</t>
+  </si>
+  <si>
+    <t>теҙем</t>
+  </si>
+  <si>
+    <t>Тура һәм ситләтелгән телмәрле һөйләмдәрҙең ҡайһыһында тыныш билдәләре дөрөҫ ҡуйылған?</t>
+  </si>
+  <si>
+    <t>“Һәр эштең үҙ тәртибе була”, - тине олатайым.</t>
+  </si>
+  <si>
+    <t>Эш бөттө көлтә йыяһы ғына ҡалды.</t>
+  </si>
+  <si>
+    <t>– Беҙ барғас та, бабай, йәгеҙ, балалар, һыу алып килегеҙ, – тине.</t>
+  </si>
+  <si>
+    <t>“Аҡ юл һеҙгә тип оҙаттылар”</t>
+  </si>
+  <si>
+    <t>Ҡайһы биремдә һүҙҙең диалект варианттары яҙылған?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ер башы, кеше башы, юл башы </t>
+  </si>
+  <si>
+    <t>мөғәллим, мәҙрәсә</t>
+  </si>
+  <si>
+    <t>цирк, аспирин, ручка</t>
+  </si>
+  <si>
+    <t>энәлек, йәмшегән, еҙәй</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;i&gt;Барыһы ла уны йотлоғоп тыңлай.&lt;/i&gt;&lt;/b&gt; Һөйләмдә ҡылымды табып, уның заманын билдәләгеҙ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">хәҙерге заман </t>
+  </si>
+  <si>
+    <t>билдәһеҙ үткән заман</t>
+  </si>
+  <si>
+    <t xml:space="preserve">билдәле үткән заман </t>
+  </si>
+  <si>
+    <t xml:space="preserve">киләсәк заман сифат ҡылым  </t>
+  </si>
+  <si>
+    <t>Ҡушма һөйләмде билдәләгеҙ:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Йүгерҙек, һикерҙек. </t>
+  </si>
+  <si>
+    <t>Йүгергәс, еңел булып ҡалды.</t>
+  </si>
+  <si>
+    <t>Йүгерҙек, ләкин тота алманыҡ.</t>
+  </si>
+  <si>
+    <t>Балаһы йүгергәс, әсәһе шат.</t>
+  </si>
+  <si>
+    <t>Ниндәй һүҙҙәргә тарихи һүҙҙәр тип әйтәләр?</t>
+  </si>
+  <si>
+    <t>ҡулланылыштан төшөп ҡалған предметтарҙы атаған һүҙҙәр</t>
+  </si>
+  <si>
+    <t>яңы барлыҡҡа килгән предметтарҙы атаған һүҙҙәр</t>
+  </si>
+  <si>
+    <t>хәҙерге предметтарҙың иҫкергән атамалары</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;i&gt;Мәктәпкә, өйгә, ҡалаға&lt;/i&gt;&lt;/b&gt;  һүҙҙәренең килеше:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">төбәү килеш                                                </t>
+  </si>
+  <si>
+    <t>төшөм килеш</t>
+  </si>
+  <si>
+    <t xml:space="preserve">эйәлек килеш                                             </t>
+  </si>
+  <si>
+    <t>сығанаҡ килеш</t>
+  </si>
+  <si>
+    <t>Вокализм ул:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тартынҡы өндәр системаһы;               </t>
+  </si>
+  <si>
+    <t>өндәр системаһы.</t>
+  </si>
+  <si>
+    <t>һуҙынҡы өндәр системаһы;</t>
+  </si>
+  <si>
+    <t>Башҡорт теле башҡа ҡәрҙәш телдәрҙән нимәһе менән айырыла?</t>
+  </si>
+  <si>
+    <t>килеш ялғауҙары варианттары менән</t>
+  </si>
+  <si>
+    <t>фонетик системаһы, һүҙлек составы һәм грамматик төҙөлөшө менән</t>
+  </si>
+  <si>
+    <t>эйәлек категорияһы ялғауҙары менән</t>
+  </si>
+  <si>
+    <t>һөйләмдә һүҙ тәртибе менән</t>
+  </si>
+  <si>
+    <t>Ҡайһы һүҙҙә ҡалын айырыу билдәһе яҙыла?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">көн..яҡ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ар..яҡ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">бир..яҡ; </t>
+  </si>
+  <si>
+    <t>Гөл…емеш</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;i&gt;Бөгөн беҙ &lt;u&gt;еләк&lt;/u&gt; ашаныҡ.&lt;/i&gt;&lt;/b&gt; Билдәләнгән һүҙ ниндәй һөйләм киҫәге?</t>
+  </si>
+  <si>
+    <t>хәбәр</t>
+  </si>
+  <si>
+    <t>аныҡлаусы</t>
+  </si>
+  <si>
+    <t>тултырыусы</t>
+  </si>
+  <si>
+    <t>хәл</t>
+  </si>
+  <si>
+    <t>Һөйләүсенең булып үткән-эш хәлде үҙ  күҙе менән күрмәүен, унда ҡатнашмауын ҡылымдың ниндәй заман формаһы белдерә?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">хәбәр һөйкәлешенең шаһитлы үткән заманы </t>
+  </si>
+  <si>
+    <t>теләк һөйкәлеше</t>
+  </si>
+  <si>
+    <t xml:space="preserve">шарт һөйкәлеше </t>
+  </si>
+  <si>
+    <t>хәбәр һөйкәлешенең шаһитһыҙ үткән заманы</t>
+  </si>
+  <si>
+    <t>яҡшылыҡ эшләү</t>
+  </si>
+  <si>
+    <t>һыуҙа батмай</t>
+  </si>
+  <si>
+    <t>ятып ҡалмай</t>
+  </si>
+  <si>
+    <t>онотолмай</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;i&gt; Берәүҙәрҙең юлы – ғазаптарҙа, кемдәрҙеңдер көсө – һөйөүҙә&lt;/i&gt;&lt;/b&gt; һөйләмдәрендә һыҙыҡ ҡуйылышы ҡайһы яуап менән аңлатыла.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">эйә менән хәбәр бер үк һүҙ төркөмөнән </t>
+  </si>
+  <si>
+    <t>өҫтәлмәлектән һуң һыҙыҡ ҡуйыла</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дөйөмләштереүсе һүҙ алдынан һыҙыҡ ҡуйыла </t>
+  </si>
+  <si>
+    <t>инеш һүҙҙән һуң һыҙыҡ ҡуйыла</t>
+  </si>
+  <si>
+    <t>эшелер</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> егәрлелек, тырышлыҡ, изгелек, яманлыҡ</t>
+  </si>
+  <si>
+    <t>Әзрәҡә, Самрау, Зөлхизә, Таһир</t>
+  </si>
+  <si>
+    <t>кәрәктер</t>
+  </si>
+  <si>
+    <t>изгелек, игелек, кешелеклек, яҡшы эш</t>
+  </si>
+  <si>
+    <t>Гөлостан, Ҡатил, Нөгөш, Гөлниса</t>
+  </si>
+  <si>
+    <t>хеҙмәтелер</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> тоғролоҡ, изгелек, намыҫһыҙлыҡ, яҡшы эш</t>
+  </si>
+  <si>
+    <t>Иҙел, Азамат, Яйыҡ, Айһылыу</t>
+  </si>
+  <si>
+    <t>һирәктер</t>
+  </si>
+  <si>
+    <t>яманлыҡ, изгелек, ялҡаулыҡ, тоғролоҡ</t>
+  </si>
+  <si>
+    <t>Шүлгән, Зәрҡум, Ҡәһҡәһә, Һомай</t>
+  </si>
+  <si>
+    <t>“Яҡшылыҡ” һүҙенең синонимын белдергән рәтте билдәләгеҙ:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Урал батыр” эпосында ниндәй антропонимдар ҡулланыла? </t>
+  </si>
+  <si>
+    <t>Мәҡәлде дауам итегеҙ: Яҡшылыҡҡа яҡшылыҡ – һәр кешенең...</t>
+  </si>
+  <si>
+    <t>Мәҡәлде дауам итегеҙ: &lt;b&gt;&lt;i&gt;Яҡшылыҡ ерҙә... &lt;/i&gt;&lt;/b&gt;</t>
   </si>
 </sst>
 </file>
@@ -640,8 +625,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -938,13 +926,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="B200" sqref="B200"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -961,14 +949,14 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
@@ -989,14 +977,14 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -1012,6 +1000,9 @@
       <c r="A12" t="s">
         <v>11</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
@@ -1027,9 +1018,6 @@
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
@@ -1045,14 +1033,14 @@
       <c r="A18" t="s">
         <v>17</v>
       </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
@@ -1068,9 +1056,6 @@
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
@@ -1086,6 +1071,9 @@
       <c r="A25" t="s">
         <v>24</v>
       </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
@@ -1096,9 +1084,6 @@
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
@@ -1114,6 +1099,9 @@
       <c r="A30" t="s">
         <v>29</v>
       </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
@@ -1124,6 +1112,9 @@
       <c r="A32" t="s">
         <v>31</v>
       </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
@@ -1134,9 +1125,6 @@
       <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
@@ -1152,14 +1140,14 @@
       <c r="A37" t="s">
         <v>36</v>
       </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
@@ -1168,17 +1156,17 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1186,111 +1174,111 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -1298,32 +1286,32 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -1331,32 +1319,32 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -1364,101 +1352,101 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>28</v>
-      </c>
-      <c r="B83">
-        <v>1</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>85</v>
-      </c>
-      <c r="B87">
-        <v>1</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -1466,121 +1454,121 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>97</v>
-      </c>
-      <c r="B100">
-        <v>1</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>99</v>
-      </c>
-      <c r="B102">
-        <v>1</v>
+        <v>98</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>104</v>
+      <c r="A107" s="1">
+        <v>3</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>105</v>
+      <c r="A108" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>106</v>
+      <c r="A109" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>107</v>
+      <c r="A110" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -1588,22 +1576,22 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -1611,162 +1599,162 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>118</v>
+        <v>114</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>120</v>
-      </c>
-      <c r="B124">
-        <v>1</v>
+        <v>116</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>125</v>
-      </c>
-      <c r="B129">
-        <v>1</v>
+        <v>121</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>128</v>
+        <v>124</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>129</v>
-      </c>
-      <c r="B133">
-        <v>1</v>
+        <v>125</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>133</v>
-      </c>
-      <c r="B137">
-        <v>1</v>
+        <v>129</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>136</v>
+        <v>132</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>138</v>
+        <v>134</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>141</v>
-      </c>
-      <c r="B145">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -1774,121 +1762,121 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>148</v>
-      </c>
-      <c r="B153">
-        <v>1</v>
+        <v>144</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>149</v>
+        <v>145</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>153</v>
+        <v>148</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>154</v>
-      </c>
-      <c r="B159">
-        <v>1</v>
+        <v>149</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>158</v>
+        <v>153</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>160</v>
-      </c>
-      <c r="B165">
-        <v>1</v>
+        <v>155</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -1896,73 +1884,73 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>169</v>
-      </c>
-      <c r="B174">
-        <v>1</v>
+        <v>164</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>170</v>
+        <v>165</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>173</v>
-      </c>
-      <c r="B178">
-        <v>1</v>
+        <v>167</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>174</v>
+        <v>168</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -1970,98 +1958,98 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>182</v>
+        <v>175</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>185</v>
-      </c>
-      <c r="B190">
-        <v>1</v>
+        <v>184</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>187</v>
-      </c>
-      <c r="B192">
-        <v>1</v>
+        <v>176</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>188</v>
+        <v>179</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B200">
         <v>1</v>
